--- a/media/model_dict.inference_int8_input_dict.xlsx
+++ b/media/model_dict.inference_int8_input_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0EB5D-9ECE-42EA-9D17-37CC36575F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0D77EA-89A9-4833-B617-6BE6AA93DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Dictionary that contains input information. {input node name: input tensor} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dict[str, torch.Tensor or np.ndarray]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary that contains input information such as {input node name: input tensor}.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
